--- a/1. Solved SQL Challenges.xlsx
+++ b/1. Solved SQL Challenges.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8377B8FE-9C9E-48AD-8587-D86CF35E1AF1}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD43BB14-AAEF-4267-AB1E-A3ACCB2DE30A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+  <si>
+    <t>S.No</t>
+  </si>
   <si>
     <t>SQL Challenge</t>
   </si>
@@ -101,6 +104,111 @@
   </si>
   <si>
     <t>Highest Grossing Items.txt</t>
+  </si>
+  <si>
+    <t>Top 5 Artists</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Top 5 Artists.txt</t>
+  </si>
+  <si>
+    <t>Signup Activation Rate</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Signup Activation Rate.txt</t>
+  </si>
+  <si>
+    <t>Supercloud Customer</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Supercloud Customer.txt</t>
+  </si>
+  <si>
+    <t>Odd and Even Measurements</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Odd and Even Measurements.txt</t>
+  </si>
+  <si>
+    <t>Histogram of Users and Purchases</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Histogram of Users and Purchases.txt</t>
+  </si>
+  <si>
+    <t>The PADS</t>
+  </si>
+  <si>
+    <t>The PADS.txt</t>
+  </si>
+  <si>
+    <t>Occupations</t>
+  </si>
+  <si>
+    <t>Occupations.txt</t>
+  </si>
+  <si>
+    <t>Binary Tree Nodes</t>
+  </si>
+  <si>
+    <t>Binary Tree Nodes.txt</t>
+  </si>
+  <si>
+    <t>Top Competitors</t>
+  </si>
+  <si>
+    <t>Top Competitors.txt</t>
+  </si>
+  <si>
+    <t>Ollivanders Inventory</t>
+  </si>
+  <si>
+    <t>Ollivanders Inventory.txt</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Challenges.txt</t>
+  </si>
+  <si>
+    <t>Contest Leaderboard</t>
+  </si>
+  <si>
+    <t>Contest Leaderboard.txt</t>
+  </si>
+  <si>
+    <t>SQL Project Planning</t>
+  </si>
+  <si>
+    <t>SQL Project Planning.txt</t>
+  </si>
+  <si>
+    <t>Placements</t>
+  </si>
+  <si>
+    <t>Placements.txt</t>
+  </si>
+  <si>
+    <t>Symmetric Pairs</t>
+  </si>
+  <si>
+    <t>Symmetric Pairs.txt</t>
   </si>
   <si>
     <t>Platform</t>
@@ -159,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,22 +301,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -213,6 +507,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0E6CE84-7DF2-4522-8238-289F0EA7E714}" name="Table1" displayName="Table1" ref="B1:E12" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B1:E12" xr:uid="{E0E6CE84-7DF2-4522-8238-289F0EA7E714}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C0645AF6-74B8-4C6C-B558-86DCA185AE95}" name="SQL Challenge" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{59D7AEA4-AAA3-4FD5-83C0-FABBC0A6C1E9}" name="Asked by Company" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B917FCE9-034E-497C-9012-AEEED342D1A2}" name="Challenge link" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{8A54ECB8-50E2-4D95-BE5A-038864BA6569}" name="Solution link" dataDxfId="0" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,134 +819,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B10D85F9-50BD-46F0-A36A-127138D2787C}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{CF07CBC5-C20C-4CDF-BAA0-ACEFBBD1B4E9}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F0206537-DE13-45A1-AB68-EED260160041}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{394C0AE4-51B2-4200-8B24-E46FCFAEDCAF}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{0EFEBB29-9D03-4A3F-9F8B-F88F1A20549C}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{EED55657-8E12-4596-92B1-64B61C7644C7}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{C9194733-4AE5-400B-A245-F55C8A2C4DE5}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{E5999E02-874A-465C-9704-0E65DD741221}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{023F7C41-7A25-4B52-8A2C-E96F263F96AC}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{D8D19A6A-BDE0-49D2-A96B-C562E0BBA969}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{213260CB-7A88-4712-963E-C8AA10A23B25}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{3AB0B671-8E61-4664-A998-A81B42977E1A}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B10D85F9-50BD-46F0-A36A-127138D2787C}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{CF07CBC5-C20C-4CDF-BAA0-ACEFBBD1B4E9}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{F0206537-DE13-45A1-AB68-EED260160041}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{394C0AE4-51B2-4200-8B24-E46FCFAEDCAF}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{0EFEBB29-9D03-4A3F-9F8B-F88F1A20549C}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{EED55657-8E12-4596-92B1-64B61C7644C7}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{C9194733-4AE5-400B-A245-F55C8A2C4DE5}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{E5999E02-874A-465C-9704-0E65DD741221}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{023F7C41-7A25-4B52-8A2C-E96F263F96AC}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{D8D19A6A-BDE0-49D2-A96B-C562E0BBA969}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{213260CB-7A88-4712-963E-C8AA10A23B25}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{3AB0B671-8E61-4664-A998-A81B42977E1A}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{41AC454F-B964-4AA3-B919-1ED3E18E5455}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{FAD7C56C-AF40-42C3-B424-C3B40B616F5E}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{AFC21766-A690-4330-8B3F-710589127819}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{32A78317-D299-4869-9A43-028284A7BE0E}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{418C7990-51F4-4FA3-A810-CEB621529F56}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{3CE8E94F-23EE-42E4-A968-8B30AC28AB30}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{4E39F452-B101-43B1-A4F3-72B884B19BC6}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{A8D06D59-74D7-4A32-83A2-545ACFDE9ACD}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{067A91D2-084E-4411-82EF-454D4B50DF0D}"/>
+    <hyperlink ref="E12" r:id="rId22" xr:uid="{CEBA98AC-D88B-4D24-A020-E7814E1DB89C}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{33FC1C89-401A-4713-91D7-59CA3F3F77B9}"/>
+    <hyperlink ref="E14" r:id="rId24" xr:uid="{3D662EE7-D37C-4D5C-835E-42F9C642FD86}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{CF9D3FE2-A38A-4B09-8B48-41E7F6A512A6}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{A3E08CEA-9AA3-4F7A-A3F8-3C70EB328967}"/>
+    <hyperlink ref="D16" r:id="rId27" xr:uid="{4792A853-50C1-41ED-849E-C57660D74BBD}"/>
+    <hyperlink ref="E16" r:id="rId28" xr:uid="{5B2C1B0C-BD77-4FE3-93C5-01FDEDAFF145}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{336E6ADF-99AD-4E56-B9BC-E6B5F104418B}"/>
+    <hyperlink ref="E17" r:id="rId30" xr:uid="{E866B8D5-573A-42CE-96A5-231D29D36330}"/>
+    <hyperlink ref="D18" r:id="rId31" xr:uid="{3343DB42-0E95-4913-B101-690E251812EB}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{109C5CEB-125F-4455-8286-B3D7BA8FBA69}"/>
+    <hyperlink ref="E19" r:id="rId33" xr:uid="{19B6F274-B1D6-4DAF-A9A2-F8B08D59F88B}"/>
+    <hyperlink ref="D19" r:id="rId34" xr:uid="{75336647-46D7-4559-B6FB-BC6AB0848050}"/>
+    <hyperlink ref="E20" r:id="rId35" xr:uid="{CD54B949-2281-49F2-93E4-222125ED4FA8}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{DA330445-5AF3-47F5-BF29-FFE53ADAEC8B}"/>
+    <hyperlink ref="D21" r:id="rId37" xr:uid="{B0C7177D-0EC3-4638-B7D6-55E70E662923}"/>
+    <hyperlink ref="E21" r:id="rId38" xr:uid="{5027FAE3-12DF-4FD2-B3E9-96EA7D412C43}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{4597B969-DE94-421D-8B14-FDEDF90BCED5}"/>
+    <hyperlink ref="E22" r:id="rId40" xr:uid="{D0412E25-EC91-4F4C-988D-530D9A58D4D3}"/>
+    <hyperlink ref="E23" r:id="rId41" xr:uid="{69EE093A-2734-476C-B54D-83037B6ACA96}"/>
+    <hyperlink ref="D23" r:id="rId42" xr:uid="{5E099252-3EE2-4542-AAB0-D0A2B3962666}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId43"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -648,7 +1300,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,54 +1310,54 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
